--- a/biology/Botanique/Keteleeria/Keteleeria.xlsx
+++ b/biology/Botanique/Keteleeria/Keteleeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Keteleeria est un genre d'arbres constitué de trois espèces de conifères de la famille des Pinaceae ; il est très proche des genres Nothotsuga et Pseudolarix. Il se distingue de Nothotsuga par ses cônes beaucoup plus grands, et de Pseudolarix par son feuillage persistant et ses cônes qui ne désintégrent pas facilement à matûrité. Les trois genres partagent la particularité d'avoir des cônes mâles en ombelles et aussi par leur capacité, très rare chez les Pinacées, d'être en mesure de donner des taillis.
 Le genre se trouve dans le sud de la Chine (à partir du Shaanxi jusqu'au Guangdong et au Yunnan), à Taiwan, sur  l'île de Hainan, dans le nord du Laos et du Vietnam.
@@ -515,7 +527,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Keteleeria davidiana
 Keteleeria evelyniana
@@ -547,9 +561,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 nov. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 nov. 2010) :
 Keteleeria davidiana
 variété Keteleeria davidiana var. calcarea
 variété Keteleeria davidiana var. formosana
